--- a/uniquecolleges.xlsx
+++ b/uniquecolleges.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>college_name</t>
   </si>
@@ -152,15 +152,6 @@
     <t>45</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>University of California</t>
   </si>
   <si>
@@ -266,7 +257,7 @@
     <t>University of Tennessee, Knoxville</t>
   </si>
   <si>
-    <t>University of Pittsburg</t>
+    <t>University of Pittsburgh</t>
   </si>
   <si>
     <t>University of Pennsylvania</t>
@@ -275,19 +266,10 @@
     <t>The Catholic University of America</t>
   </si>
   <si>
-    <t>University of Pittsburgh</t>
-  </si>
-  <si>
     <t>Colgate University</t>
   </si>
   <si>
     <t>The City University of New York</t>
-  </si>
-  <si>
-    <t>University of maryland</t>
-  </si>
-  <si>
-    <t>University of Tennesee, Knoxville</t>
   </si>
   <si>
     <t>University of South Florida</t>
@@ -364,7 +346,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -372,7 +354,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -380,7 +362,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -388,7 +370,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -396,7 +378,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -404,7 +386,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -412,7 +394,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -420,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -428,7 +410,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -436,7 +418,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -444,7 +426,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -452,7 +434,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -460,7 +442,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -468,7 +450,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -476,7 +458,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -484,7 +466,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -492,7 +474,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -500,7 +482,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -508,7 +490,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -516,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -524,7 +506,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -532,7 +514,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -540,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -548,7 +530,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -556,7 +538,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +546,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -572,7 +554,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -580,7 +562,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -588,7 +570,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -596,7 +578,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -604,7 +586,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -612,7 +594,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -620,7 +602,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -628,7 +610,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -636,7 +618,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -644,7 +626,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -652,7 +634,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -660,7 +642,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -668,7 +650,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
@@ -676,7 +658,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -684,7 +666,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
@@ -692,7 +674,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -700,7 +682,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
@@ -708,7 +690,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
@@ -716,31 +698,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/uniquecolleges.xlsx
+++ b/uniquecolleges.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>college_name</t>
   </si>
@@ -152,6 +152,12 @@
     <t>45</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>University of California</t>
   </si>
   <si>
@@ -161,115 +167,121 @@
     <t>Columbia University</t>
   </si>
   <si>
+    <t>University at Buffalo, the State University of New York</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
+  </si>
+  <si>
+    <t>Georgetown University</t>
+  </si>
+  <si>
+    <t>University of Utah</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>Saint Louis University</t>
+  </si>
+  <si>
+    <t>University of Oklahoma</t>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>The Ohio State University</t>
+  </si>
+  <si>
+    <t>Oklahoma State University</t>
+  </si>
+  <si>
+    <t>University of North Texas</t>
+  </si>
+  <si>
+    <t>George Washington University</t>
+  </si>
+  <si>
+    <t>University of Missouri</t>
+  </si>
+  <si>
+    <t>Ohio University</t>
+  </si>
+  <si>
+    <t>Rochester Institute of Technology</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>University of Virginia</t>
+  </si>
+  <si>
+    <t>University of Vermont</t>
+  </si>
+  <si>
+    <t>Tarrant County College District</t>
+  </si>
+  <si>
+    <t>Southern Illinois University Edwardsville</t>
+  </si>
+  <si>
+    <t>Temple University</t>
+  </si>
+  <si>
+    <t>City Colleges of Chicago</t>
+  </si>
+  <si>
+    <t>University of Wisconsin</t>
+  </si>
+  <si>
+    <t>American University</t>
+  </si>
+  <si>
+    <t>Drexel University</t>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
+    <t>University of New Hampshire</t>
+  </si>
+  <si>
+    <t>Colorado State University</t>
+  </si>
+  <si>
+    <t>University of Tennessee, Knoxville</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>The Catholic University of America</t>
+  </si>
+  <si>
+    <t>Colgate University</t>
+  </si>
+  <si>
+    <t>The City University of New York</t>
+  </si>
+  <si>
     <t>University at Buffalo, The State University of New York</t>
   </si>
   <si>
-    <t>Boston University</t>
-  </si>
-  <si>
-    <t>Stanford University</t>
-  </si>
-  <si>
-    <t>University of Maryland</t>
-  </si>
-  <si>
-    <t>Georgetown University</t>
-  </si>
-  <si>
-    <t>University of Utah</t>
-  </si>
-  <si>
-    <t>Carnegie Mellon University</t>
-  </si>
-  <si>
-    <t>Saint Louis University</t>
-  </si>
-  <si>
-    <t>University of Oklahoma</t>
-  </si>
-  <si>
-    <t>Northeastern University</t>
-  </si>
-  <si>
-    <t>Northwestern University</t>
-  </si>
-  <si>
-    <t>The Ohio State University</t>
-  </si>
-  <si>
-    <t>Oklahoma State University</t>
-  </si>
-  <si>
-    <t>University of North Texas</t>
-  </si>
-  <si>
-    <t>George Washington University</t>
-  </si>
-  <si>
-    <t>University of Missouri</t>
-  </si>
-  <si>
-    <t>Ohio University</t>
-  </si>
-  <si>
-    <t>Rochester Institute of Technology</t>
-  </si>
-  <si>
-    <t>University of Minnesota</t>
-  </si>
-  <si>
-    <t>University of Virginia</t>
-  </si>
-  <si>
-    <t>University of Vermont</t>
-  </si>
-  <si>
-    <t>Tarrant County College District</t>
-  </si>
-  <si>
-    <t>Southern Illinois University Edwardsville</t>
-  </si>
-  <si>
-    <t>Temple University</t>
-  </si>
-  <si>
-    <t>City Colleges of Chicago</t>
-  </si>
-  <si>
-    <t>University of Wisconsin</t>
-  </si>
-  <si>
-    <t>American University</t>
-  </si>
-  <si>
-    <t>Drexel University</t>
-  </si>
-  <si>
-    <t>Syracuse University</t>
-  </si>
-  <si>
-    <t>University of New Hampshire</t>
-  </si>
-  <si>
-    <t>Colorado State University</t>
-  </si>
-  <si>
-    <t>University of Tennessee, Knoxville</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh</t>
-  </si>
-  <si>
-    <t>University of Pennsylvania</t>
-  </si>
-  <si>
-    <t>The Catholic University of America</t>
-  </si>
-  <si>
-    <t>Colgate University</t>
-  </si>
-  <si>
-    <t>The City University of New York</t>
+    <t>Carnegie-Mellon University</t>
   </si>
   <si>
     <t>University of South Florida</t>
@@ -278,10 +290,10 @@
     <t>University of Illinois at Urbana-Champaign</t>
   </si>
   <si>
+    <t>University at Buffalo, the State university of New York</t>
+  </si>
+  <si>
     <t>Western Washington University</t>
-  </si>
-  <si>
-    <t>SUNY University at Buffalo</t>
   </si>
   <si>
     <t>Texas A&amp;M University System</t>
@@ -346,7 +358,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -354,7 +366,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -362,7 +374,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -370,7 +382,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -378,7 +390,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -386,7 +398,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -394,7 +406,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -402,7 +414,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -410,7 +422,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -418,7 +430,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -426,7 +438,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -434,7 +446,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -442,7 +454,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -450,7 +462,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -458,7 +470,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -466,7 +478,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -474,7 +486,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
@@ -482,7 +494,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -490,7 +502,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +510,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -506,7 +518,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -514,7 +526,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -522,7 +534,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -530,7 +542,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -538,7 +550,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -546,7 +558,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -554,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
@@ -562,7 +574,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -570,7 +582,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -578,7 +590,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -586,7 +598,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -594,7 +606,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -602,7 +614,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -610,7 +622,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -618,7 +630,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -626,7 +638,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -634,7 +646,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
@@ -642,7 +654,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -650,7 +662,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
@@ -658,7 +670,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
@@ -666,7 +678,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
@@ -674,7 +686,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44">
@@ -682,7 +694,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -690,7 +702,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
@@ -698,7 +710,23 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/uniquecolleges.xlsx
+++ b/uniquecolleges.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>college_name</t>
   </si>
@@ -149,6 +149,9 @@
     <t>44</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>University of California</t>
   </si>
   <si>
@@ -267,6 +270,9 @@
   </si>
   <si>
     <t>The City University of New York</t>
+  </si>
+  <si>
+    <t>Carnegie-Mellon University</t>
   </si>
   <si>
     <t>University of South Florida</t>
@@ -340,7 +346,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -348,7 +354,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -356,7 +362,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -364,7 +370,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -372,7 +378,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -380,7 +386,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -388,7 +394,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -396,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -404,7 +410,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -412,7 +418,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -420,7 +426,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -428,7 +434,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -436,7 +442,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -444,7 +450,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -452,7 +458,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -460,7 +466,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -468,7 +474,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -476,7 +482,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -484,7 +490,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -492,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -500,7 +506,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -508,7 +514,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -516,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -524,7 +530,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -532,7 +538,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -540,7 +546,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -548,7 +554,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -556,7 +562,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -564,7 +570,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -572,7 +578,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -580,7 +586,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -588,7 +594,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -596,7 +602,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -604,7 +610,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -612,7 +618,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -620,7 +626,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -628,7 +634,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -636,7 +642,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -644,7 +650,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
@@ -652,7 +658,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -660,7 +666,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
@@ -668,7 +674,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -676,7 +682,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
@@ -684,7 +690,15 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/uniquecolleges.xlsx
+++ b/uniquecolleges.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>college_name</t>
   </si>
@@ -152,6 +152,15 @@
     <t>45</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>University of California</t>
   </si>
   <si>
@@ -161,121 +170,130 @@
     <t>Columbia University</t>
   </si>
   <si>
+    <t>University at Buffalo, the State University of New York</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
+  </si>
+  <si>
+    <t>Georgetown University</t>
+  </si>
+  <si>
+    <t>University of Utah</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>Saint Louis University</t>
+  </si>
+  <si>
+    <t>University of Oklahoma</t>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>The Ohio State University</t>
+  </si>
+  <si>
+    <t>Oklahoma State University</t>
+  </si>
+  <si>
+    <t>University of North Texas</t>
+  </si>
+  <si>
+    <t>George Washington University</t>
+  </si>
+  <si>
+    <t>University of Missouri</t>
+  </si>
+  <si>
+    <t>Ohio University</t>
+  </si>
+  <si>
+    <t>Rochester Institute of Technology</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>University of Virginia</t>
+  </si>
+  <si>
+    <t>University of Vermont</t>
+  </si>
+  <si>
+    <t>Tarrant County College District</t>
+  </si>
+  <si>
+    <t>Southern Illinois University Edwardsville</t>
+  </si>
+  <si>
+    <t>Temple University</t>
+  </si>
+  <si>
+    <t>City Colleges of Chicago</t>
+  </si>
+  <si>
+    <t>University of Wisconsin</t>
+  </si>
+  <si>
+    <t>American University</t>
+  </si>
+  <si>
+    <t>Drexel University</t>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
+    <t>University of New Hampshire</t>
+  </si>
+  <si>
+    <t>Colorado State University</t>
+  </si>
+  <si>
+    <t>University of Tennessee, Knoxville</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>The Catholic University of America</t>
+  </si>
+  <si>
+    <t>Colgate University</t>
+  </si>
+  <si>
+    <t>The City University of New York</t>
+  </si>
+  <si>
     <t>University at Buffalo, The State University of New York</t>
   </si>
   <si>
-    <t>Boston University</t>
-  </si>
-  <si>
-    <t>Stanford University</t>
-  </si>
-  <si>
-    <t>University of Maryland</t>
-  </si>
-  <si>
-    <t>Georgetown University</t>
-  </si>
-  <si>
-    <t>University of Utah</t>
-  </si>
-  <si>
-    <t>Carnegie Mellon University</t>
-  </si>
-  <si>
-    <t>Saint Louis University</t>
-  </si>
-  <si>
-    <t>University of Oklahoma</t>
-  </si>
-  <si>
-    <t>Northeastern University</t>
-  </si>
-  <si>
-    <t>Northwestern University</t>
-  </si>
-  <si>
-    <t>The Ohio State University</t>
-  </si>
-  <si>
-    <t>Oklahoma State University</t>
-  </si>
-  <si>
-    <t>University of North Texas</t>
-  </si>
-  <si>
-    <t>George Washington University</t>
-  </si>
-  <si>
-    <t>University of Missouri</t>
-  </si>
-  <si>
-    <t>Ohio University</t>
-  </si>
-  <si>
-    <t>Rochester Institute of Technology</t>
-  </si>
-  <si>
-    <t>University of Minnesota</t>
-  </si>
-  <si>
-    <t>University of Virginia</t>
-  </si>
-  <si>
-    <t>University of Vermont</t>
-  </si>
-  <si>
-    <t>Tarrant County College District</t>
-  </si>
-  <si>
-    <t>Southern Illinois University Edwardsville</t>
-  </si>
-  <si>
-    <t>Temple University</t>
-  </si>
-  <si>
-    <t>City Colleges of Chicago</t>
-  </si>
-  <si>
-    <t>University of Wisconsin</t>
-  </si>
-  <si>
-    <t>American University</t>
-  </si>
-  <si>
-    <t>Drexel University</t>
-  </si>
-  <si>
-    <t>Syracuse University</t>
-  </si>
-  <si>
-    <t>University of New Hampshire</t>
-  </si>
-  <si>
-    <t>Colorado State University</t>
-  </si>
-  <si>
-    <t>University of Tennessee, Knoxville</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh</t>
-  </si>
-  <si>
-    <t>University of Pennsylvania</t>
-  </si>
-  <si>
-    <t>The Catholic University of America</t>
-  </si>
-  <si>
-    <t>Colgate University</t>
-  </si>
-  <si>
-    <t>The City University of New York</t>
+    <t>Carnegie-Mellon University</t>
   </si>
   <si>
     <t>University of South Florida</t>
   </si>
   <si>
     <t>University of Illinois at Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>University at Buffalo, the State university of New York</t>
   </si>
   <si>
     <t>Western Washington University</t>
@@ -346,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -354,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -362,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -370,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -378,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -386,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -394,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -402,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -410,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -418,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -426,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -434,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -442,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -450,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -458,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -466,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -474,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -482,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -490,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -506,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -514,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -522,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -530,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -538,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -546,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -554,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -562,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -570,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -578,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -586,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -594,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -602,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -610,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -618,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -626,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
@@ -634,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -642,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
@@ -650,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
@@ -658,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
@@ -666,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
@@ -674,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
@@ -682,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45">
@@ -690,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46">
@@ -698,7 +716,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/uniquecolleges.xlsx
+++ b/uniquecolleges.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>college_name</t>
   </si>
@@ -155,27 +155,24 @@
     <t>46</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>University of California</t>
   </si>
   <si>
+    <t>American University</t>
+  </si>
+  <si>
     <t>Arizona State University</t>
   </si>
   <si>
     <t>Columbia University</t>
   </si>
   <si>
-    <t>University at Buffalo, the State University of New York</t>
-  </si>
-  <si>
     <t>Boston University</t>
   </si>
   <si>
+    <t>University at Buffalo, The State University of New York</t>
+  </si>
+  <si>
     <t>Stanford University</t>
   </si>
   <si>
@@ -188,40 +185,52 @@
     <t>University of Utah</t>
   </si>
   <si>
+    <t>George Washington University</t>
+  </si>
+  <si>
     <t>Carnegie Mellon University</t>
   </si>
   <si>
+    <t>Oklahoma State University</t>
+  </si>
+  <si>
+    <t>City Colleges of Chicago</t>
+  </si>
+  <si>
     <t>Saint Louis University</t>
   </si>
   <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
     <t>University of Oklahoma</t>
   </si>
   <si>
-    <t>Northeastern University</t>
-  </si>
-  <si>
     <t>Northwestern University</t>
   </si>
   <si>
     <t>The Ohio State University</t>
   </si>
   <si>
-    <t>Oklahoma State University</t>
+    <t>Ohio University</t>
+  </si>
+  <si>
+    <t>Rochester Institute of Technology</t>
   </si>
   <si>
     <t>University of North Texas</t>
   </si>
   <si>
-    <t>George Washington University</t>
+    <t>Southern Illinois University Edwardsville</t>
   </si>
   <si>
     <t>University of Missouri</t>
   </si>
   <si>
-    <t>Ohio University</t>
-  </si>
-  <si>
-    <t>Rochester Institute of Technology</t>
+    <t>Tarrant County College District</t>
+  </si>
+  <si>
+    <t>Temple University</t>
   </si>
   <si>
     <t>University of Minnesota</t>
@@ -233,24 +242,9 @@
     <t>University of Vermont</t>
   </si>
   <si>
-    <t>Tarrant County College District</t>
-  </si>
-  <si>
-    <t>Southern Illinois University Edwardsville</t>
-  </si>
-  <si>
-    <t>Temple University</t>
-  </si>
-  <si>
-    <t>City Colleges of Chicago</t>
-  </si>
-  <si>
     <t>University of Wisconsin</t>
   </si>
   <si>
-    <t>American University</t>
-  </si>
-  <si>
     <t>Drexel University</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>The City University of New York</t>
   </si>
   <si>
-    <t>University at Buffalo, The State University of New York</t>
-  </si>
-  <si>
     <t>Carnegie-Mellon University</t>
   </si>
   <si>
@@ -291,9 +282,6 @@
   </si>
   <si>
     <t>University of Illinois at Urbana-Champaign</t>
-  </si>
-  <si>
-    <t>University at Buffalo, the State university of New York</t>
   </si>
   <si>
     <t>Western Washington University</t>
@@ -364,7 +352,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -372,7 +360,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -380,7 +368,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -388,7 +376,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -396,7 +384,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -404,7 +392,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -412,7 +400,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -420,7 +408,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -428,7 +416,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -436,7 +424,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -444,7 +432,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -452,7 +440,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -460,7 +448,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -468,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -476,7 +464,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -484,7 +472,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -492,7 +480,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -500,7 +488,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -508,7 +496,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -516,7 +504,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -524,7 +512,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -532,7 +520,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -540,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -548,7 +536,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -556,7 +544,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +552,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -572,7 +560,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -580,7 +568,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -588,7 +576,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -596,7 +584,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -604,7 +592,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -612,7 +600,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -620,7 +608,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -628,7 +616,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -636,7 +624,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -644,7 +632,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -652,7 +640,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -660,7 +648,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
@@ -668,7 +656,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -676,7 +664,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
@@ -684,7 +672,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
@@ -692,7 +680,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
@@ -700,7 +688,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
@@ -708,7 +696,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
@@ -716,7 +704,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -724,23 +712,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/uniquecolleges.xlsx
+++ b/uniquecolleges.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="UNIQUE COLLEGES" r:id="rId3" sheetId="1"/>
+    <sheet name="uniqueColleges" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
